--- a/Data/Commodore 64 Breadbin/250425/Data 250425.xlsx
+++ b/Data/Commodore 64 Breadbin/250425/Data 250425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Commodore 64 Breadbin\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4786E457-D66F-4DA6-8019-90663A4BBA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE29AF0-22B1-4E6E-9730-C0232E960FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="105">
   <si>
     <t>U1</t>
   </si>
@@ -454,12 +454,112 @@
   <si>
     <t>ROM that contains the BASIC</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alternative Number:
+[list]8521[/list]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bold line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Italic line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Strike-though line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Underline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Function:
+[list]The CIA (Complex Interface Adapter) is an I/O chip with parallel and serial port as well a time of day clock (TOD) and timers[/list]
+Used in:
+[list]Commodore 64[/list]
+[list]Commodore 128[/list]
+[list]1570/1571/1581 Drive[/list]</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +610,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1075,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1178,7 +1286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -1193,6 +1301,9 @@
       </c>
       <c r="F7" s="1" t="s">
         <v>103</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">

--- a/Data/Commodore 64 Breadbin/250425/Data 250425.xlsx
+++ b/Data/Commodore 64 Breadbin/250425/Data 250425.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Commodore 64 Breadbin\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE29AF0-22B1-4E6E-9730-C0232E960FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1626516C-DE2D-4153-9CCB-62DACA1BB109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="104">
   <si>
     <t>U1</t>
   </si>
@@ -429,9 +429,6 @@
   </si>
   <si>
     <t>Yellow</t>
-  </si>
-  <si>
-    <t>Traces, Bottom</t>
   </si>
   <si>
     <t>IMAGE / COMPONENT HIGHLIGHT BOUNDS</t>
@@ -1080,7 +1077,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A5" sqref="A5:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1091,7 +1088,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1111,7 +1108,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1183,7 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1201,7 +1198,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1294,16 +1291,16 @@
         <v>2364</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1591,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E9A48C-F054-440E-83B6-CCBE69BAC155}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1607,7 +1604,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1625,137 +1622,137 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="13">
         <v>0.6</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="E6" s="13">
         <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="13">
         <v>0.75</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="E7" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="13">
         <v>0.75</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="E8" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="13">
         <v>0.75</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="E9" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="13">
         <v>0.75</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="E10" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="13">
         <v>0.75</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="E11" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>96</v>
+      <c r="A12" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="13">
         <v>0.75</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="E12" s="13">
         <v>1</v>
@@ -1763,7 +1760,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>

--- a/Data/Commodore 64 Breadbin/250425/Data 250425.xlsx
+++ b/Data/Commodore 64 Breadbin/250425/Data 250425.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Commodore 64 Breadbin\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1626516C-DE2D-4153-9CCB-62DACA1BB109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9130E8-12D0-4113-91D3-63365ABF03B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="5" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="119">
   <si>
     <t>U1</t>
   </si>
@@ -335,9 +335,6 @@
     <t>Datasheet file</t>
   </si>
   <si>
-    <t>COMPONENT DATASHEETS</t>
-  </si>
-  <si>
     <t>mos_6526_cia.pdf</t>
   </si>
   <si>
@@ -550,6 +547,54 @@
 [list]Commodore 128[/list]
 [list]1570/1571/1581 Drive[/list]</t>
     </r>
+  </si>
+  <si>
+    <t>COMPONENT LOCAL FILES</t>
+  </si>
+  <si>
+    <t>TRIVIA START</t>
+  </si>
+  <si>
+    <t>TRIVIA END</t>
+  </si>
+  <si>
+    <t>250425-01 (B)</t>
+  </si>
+  <si>
+    <t>8-pin board (reduced oscillator circuit).</t>
+  </si>
+  <si>
+    <t>PCB Assembly Number 250425-01.</t>
+  </si>
+  <si>
+    <t>Schematic Number 251469.</t>
+  </si>
+  <si>
+    <t>CIAs, ROMs, CPU, SID, PLA, and VIC may be all socketed.</t>
+  </si>
+  <si>
+    <t>TROUBLESHOOTING START</t>
+  </si>
+  <si>
+    <t>TROUBLESHOOTIN END</t>
+  </si>
+  <si>
+    <t>LINKS START</t>
+  </si>
+  <si>
+    <t>Pictorial guides:</t>
+  </si>
+  <si>
+    <t>Lemon64</t>
+  </si>
+  <si>
+    <t>MyOldComputer</t>
+  </si>
+  <si>
+    <t>More stuff</t>
+  </si>
+  <si>
+    <t>LINKS END</t>
   </si>
 </sst>
 </file>
@@ -704,7 +749,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -759,6 +804,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1088,7 +1140,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1108,7 +1160,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1180,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,7 +1250,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1291,16 +1343,16 @@
         <v>2364</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1446,7 +1498,7 @@
     </row>
     <row r="20" spans="1:3" s="3" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -1467,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1478,10 +1530,10 @@
         <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1489,10 +1541,10 @@
         <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1500,15 +1552,15 @@
         <v>53</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="3" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -1518,10 +1570,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1529,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1540,10 +1592,10 @@
         <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1551,10 +1603,10 @@
         <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1562,10 +1614,10 @@
         <v>53</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1588,7 +1640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E9A48C-F054-440E-83B6-CCBE69BAC155}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1604,7 +1656,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1615,7 +1667,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1624,19 +1676,19 @@
     </row>
     <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1644,10 +1696,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="D6" s="13">
         <v>0.6</v>
@@ -1661,10 +1713,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="13">
         <v>0.75</v>
@@ -1678,10 +1730,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="13">
         <v>0.75</v>
@@ -1695,10 +1747,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="13">
         <v>0.75</v>
@@ -1712,10 +1764,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="13">
         <v>0.75</v>
@@ -1729,10 +1781,10 @@
         <v>57</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="13">
         <v>0.75</v>
@@ -1746,10 +1798,10 @@
         <v>58</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="13">
         <v>0.75</v>
@@ -1760,7 +1812,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1770,22 +1822,22 @@
     </row>
     <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="F16" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2059,13 +2111,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B86F22-EFC1-43D5-B548-DDEDDDBE5E13}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="132.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
@@ -2077,6 +2132,66 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2088,10 +2203,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1519DFCC-A664-4B71-859C-4D1D578ADE04}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2107,20 +2222,51 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
+    <row r="4" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF6E09E-B5BF-4B73-B79A-A473EDB66B5F}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2136,10 +2282,48 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{11A8E10B-5B97-4D0A-997B-A41364C2CBC2}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{46FAC64C-D703-4237-8923-36F184182E3D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Data/Commodore 64 Breadbin/250425/Data 250425.xlsx
+++ b/Data/Commodore 64 Breadbin/250425/Data 250425.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Commodore 64 Breadbin\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9130E8-12D0-4113-91D3-63365ABF03B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E7A307-00C7-48CF-9CB1-C0A8B6878F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="5" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="5" r:id="rId1"/>
     <sheet name="Components" sheetId="1" r:id="rId2"/>
     <sheet name="Highlights" sheetId="6" r:id="rId3"/>
-    <sheet name="Trivia" sheetId="2" r:id="rId4"/>
-    <sheet name="Troubleshooting" sheetId="3" r:id="rId5"/>
-    <sheet name="Links" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Highlights!$A$16:$F$29</definedName>
@@ -44,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="103">
   <si>
     <t>U1</t>
   </si>
@@ -128,9 +125,6 @@
   </si>
   <si>
     <t>Generates the clock signal</t>
-  </si>
-  <si>
-    <t># Commodore 64 (Breadbin) assy 250425</t>
   </si>
   <si>
     <r>
@@ -550,51 +544,6 @@
   </si>
   <si>
     <t>COMPONENT LOCAL FILES</t>
-  </si>
-  <si>
-    <t>TRIVIA START</t>
-  </si>
-  <si>
-    <t>TRIVIA END</t>
-  </si>
-  <si>
-    <t>250425-01 (B)</t>
-  </si>
-  <si>
-    <t>8-pin board (reduced oscillator circuit).</t>
-  </si>
-  <si>
-    <t>PCB Assembly Number 250425-01.</t>
-  </si>
-  <si>
-    <t>Schematic Number 251469.</t>
-  </si>
-  <si>
-    <t>CIAs, ROMs, CPU, SID, PLA, and VIC may be all socketed.</t>
-  </si>
-  <si>
-    <t>TROUBLESHOOTING START</t>
-  </si>
-  <si>
-    <t>TROUBLESHOOTIN END</t>
-  </si>
-  <si>
-    <t>LINKS START</t>
-  </si>
-  <si>
-    <t>Pictorial guides:</t>
-  </si>
-  <si>
-    <t>Lemon64</t>
-  </si>
-  <si>
-    <t>MyOldComputer</t>
-  </si>
-  <si>
-    <t>More stuff</t>
-  </si>
-  <si>
-    <t>LINKS END</t>
   </si>
 </sst>
 </file>
@@ -749,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -804,13 +753,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1140,7 +1082,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1152,15 +1094,15 @@
     <row r="2" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1205,18 +1147,18 @@
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1192,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1271,7 +1213,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>20</v>
@@ -1286,7 +1228,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
@@ -1309,7 +1251,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1337,27 +1279,27 @@
     </row>
     <row r="7" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1">
         <v>2364</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1">
         <v>7406</v>
@@ -1365,10 +1307,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1393,112 +1335,112 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1">
         <v>7406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1">
         <v>123</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="3" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -1508,10 +1450,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1519,48 +1461,48 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="3" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -1570,10 +1512,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1581,43 +1523,43 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1640,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E9A48C-F054-440E-83B6-CCBE69BAC155}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1656,7 +1598,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1667,7 +1609,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1676,19 +1618,19 @@
     </row>
     <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1696,10 +1638,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="D6" s="13">
         <v>0.6</v>
@@ -1713,10 +1655,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="13">
         <v>0.75</v>
@@ -1730,10 +1672,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="13">
         <v>0.75</v>
@@ -1747,10 +1689,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="13">
         <v>0.75</v>
@@ -1764,10 +1706,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="13">
         <v>0.75</v>
@@ -1778,13 +1720,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="13">
         <v>0.75</v>
@@ -1795,13 +1737,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="13">
         <v>0.75</v>
@@ -1812,7 +1754,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1822,22 +1764,22 @@
     </row>
     <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="F16" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1845,7 +1787,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="10">
         <v>1245</v>
@@ -1865,7 +1807,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="10">
         <v>852</v>
@@ -1885,7 +1827,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="10">
         <v>555</v>
@@ -1905,7 +1847,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="10">
         <v>2555</v>
@@ -1925,7 +1867,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="10">
         <v>565</v>
@@ -1945,7 +1887,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="10">
         <v>1055</v>
@@ -1965,7 +1907,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="10">
         <v>1200</v>
@@ -1985,7 +1927,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="10">
         <v>1577</v>
@@ -2005,7 +1947,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="10">
         <v>2237</v>
@@ -2025,7 +1967,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="10">
         <v>2091</v>
@@ -2045,7 +1987,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="10">
         <v>237</v>
@@ -2062,10 +2004,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="10">
         <v>1237</v>
@@ -2082,10 +2024,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="10">
         <v>837</v>
@@ -2107,223 +2049,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B86F22-EFC1-43D5-B548-DDEDDDBE5E13}">
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="132.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1519DFCC-A664-4B71-859C-4D1D578ADE04}">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="4" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF6E09E-B5BF-4B73-B79A-A473EDB66B5F}">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{11A8E10B-5B97-4D0A-997B-A41364C2CBC2}"/>
-    <hyperlink ref="A7" r:id="rId2" xr:uid="{46FAC64C-D703-4237-8923-36F184182E3D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-</worksheet>
 </file>